--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H2">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I2">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J2">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N2">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O2">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P2">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q2">
-        <v>234.2145682097385</v>
+        <v>138.0819637451407</v>
       </c>
       <c r="R2">
-        <v>936.858272838954</v>
+        <v>552.327854980563</v>
       </c>
       <c r="S2">
-        <v>0.0009997279599147507</v>
+        <v>0.0005205208787787402</v>
       </c>
       <c r="T2">
-        <v>0.0004863713589964628</v>
+        <v>0.0002517063375970877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H3">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I3">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J3">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
         <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P3">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q3">
-        <v>260.4437656531319</v>
+        <v>188.748873035682</v>
       </c>
       <c r="R3">
-        <v>1562.662593918792</v>
+        <v>1132.493238214092</v>
       </c>
       <c r="S3">
-        <v>0.001111685393863962</v>
+        <v>0.0007115174682941712</v>
       </c>
       <c r="T3">
-        <v>0.0008112585985435072</v>
+        <v>0.000516098767740705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H4">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I4">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J4">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N4">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O4">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P4">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q4">
-        <v>301.370762448811</v>
+        <v>226.8341733892235</v>
       </c>
       <c r="R4">
-        <v>1808.224574692866</v>
+        <v>1361.005040335341</v>
       </c>
       <c r="S4">
-        <v>0.001286379322276399</v>
+        <v>0.0008550857770789984</v>
       </c>
       <c r="T4">
-        <v>0.0009387424643208023</v>
+        <v>0.000620235954179861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H5">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I5">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J5">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N5">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O5">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P5">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q5">
-        <v>136.6434464151285</v>
+        <v>92.82382619572199</v>
       </c>
       <c r="R5">
-        <v>546.573785660514</v>
+        <v>371.295304782888</v>
       </c>
       <c r="S5">
-        <v>0.0005832526770836322</v>
+        <v>0.0003499134736538144</v>
       </c>
       <c r="T5">
-        <v>0.0002837545898142943</v>
+        <v>0.000169206351791155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H6">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I6">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J6">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N6">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O6">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P6">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q6">
-        <v>182.866368916208</v>
+        <v>195.7660367638435</v>
       </c>
       <c r="R6">
-        <v>1097.198213497248</v>
+        <v>1174.596220583061</v>
       </c>
       <c r="S6">
-        <v>0.000780551881682727</v>
+        <v>0.0007379697299165401</v>
       </c>
       <c r="T6">
-        <v>0.0005696120765097641</v>
+        <v>0.0005352858998008487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.991803</v>
+        <v>2.8929405</v>
       </c>
       <c r="H7">
-        <v>7.983606</v>
+        <v>5.785881</v>
       </c>
       <c r="I7">
-        <v>0.00650232559216137</v>
+        <v>0.003798787650266751</v>
       </c>
       <c r="J7">
-        <v>0.004360045287596243</v>
+        <v>0.002544991992943466</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N7">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O7">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P7">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q7">
-        <v>407.814882580235</v>
+        <v>165.4742689373135</v>
       </c>
       <c r="R7">
-        <v>2446.88929548141</v>
+        <v>992.845613623881</v>
       </c>
       <c r="S7">
-        <v>0.0017407283573399</v>
+        <v>0.0006237803225444868</v>
       </c>
       <c r="T7">
-        <v>0.001270306199411412</v>
+        <v>0.0004524586818338083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I8">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J8">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N8">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O8">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P8">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q8">
-        <v>1091.947457204454</v>
+        <v>888.2892165944392</v>
       </c>
       <c r="R8">
-        <v>6551.684743226723</v>
+        <v>5329.735299566634</v>
       </c>
       <c r="S8">
-        <v>0.004660898816283445</v>
+        <v>0.00334854075862379</v>
       </c>
       <c r="T8">
-        <v>0.003401316831652018</v>
+        <v>0.002428862025550105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I9">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J9">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
         <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P9">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q9">
         <v>1214.232358915518</v>
@@ -1013,10 +1013,10 @@
         <v>10928.09123023966</v>
       </c>
       <c r="S9">
-        <v>0.005182863082855032</v>
+        <v>0.004577232806964118</v>
       </c>
       <c r="T9">
-        <v>0.005673334736942284</v>
+        <v>0.004980139595869697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I10">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J10">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N10">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O10">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P10">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q10">
-        <v>1405.040857394727</v>
+        <v>1459.23728712796</v>
       </c>
       <c r="R10">
-        <v>12645.36771655254</v>
+        <v>13133.13558415164</v>
       </c>
       <c r="S10">
-        <v>0.005997315370674272</v>
+        <v>0.005500815996826961</v>
       </c>
       <c r="T10">
-        <v>0.006564861366567557</v>
+        <v>0.005985020362895023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I11">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J11">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N11">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O11">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P11">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q11">
-        <v>637.0545820319671</v>
+        <v>597.1410140493308</v>
       </c>
       <c r="R11">
-        <v>3822.327492191802</v>
+        <v>3582.846084295984</v>
       </c>
       <c r="S11">
-        <v>0.002719221449448171</v>
+        <v>0.002251013506452424</v>
       </c>
       <c r="T11">
-        <v>0.001984366975031711</v>
+        <v>0.001632771293209438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I12">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J12">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N12">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O12">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P12">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q12">
-        <v>852.5535711657851</v>
+        <v>1259.374176874511</v>
       </c>
       <c r="R12">
-        <v>7672.982140492066</v>
+        <v>11334.3675918706</v>
       </c>
       <c r="S12">
-        <v>0.003639063312476592</v>
+        <v>0.004747401727773024</v>
       </c>
       <c r="T12">
-        <v>0.003983440035084401</v>
+        <v>0.005165287482430648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>55.83135800000001</v>
       </c>
       <c r="I13">
-        <v>0.03031492853133647</v>
+        <v>0.02443781949749996</v>
       </c>
       <c r="J13">
-        <v>0.03049088962406196</v>
+        <v>0.0245581198550679</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N13">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O13">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P13">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q13">
-        <v>1901.301133603459</v>
+        <v>1064.505491768373</v>
       </c>
       <c r="R13">
-        <v>17111.71020243113</v>
+        <v>9580.54942591536</v>
       </c>
       <c r="S13">
-        <v>0.008115566499598961</v>
+        <v>0.004012814700859641</v>
       </c>
       <c r="T13">
-        <v>0.008883569678783988</v>
+        <v>0.004366039095112992</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H14">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I14">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J14">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N14">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O14">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P14">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q14">
-        <v>15793.9454645149</v>
+        <v>11493.80054155527</v>
       </c>
       <c r="R14">
-        <v>94763.67278708938</v>
+        <v>68962.80324933158</v>
       </c>
       <c r="S14">
-        <v>0.06741531493508432</v>
+        <v>0.04332762220444918</v>
       </c>
       <c r="T14">
-        <v>0.04919670098795799</v>
+        <v>0.03142766470999124</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H15">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I15">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J15">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
         <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P15">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q15">
-        <v>17562.67623632573</v>
+        <v>15711.26192208295</v>
       </c>
       <c r="R15">
-        <v>158064.0861269315</v>
+        <v>141401.3572987465</v>
       </c>
       <c r="S15">
-        <v>0.07496501442498717</v>
+        <v>0.05922598173284865</v>
       </c>
       <c r="T15">
-        <v>0.08205920426483221</v>
+        <v>0.06443929534963835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H16">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I16">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J16">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N16">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O16">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P16">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q16">
-        <v>20322.53340643345</v>
+        <v>18881.44312429108</v>
       </c>
       <c r="R16">
-        <v>182902.800657901</v>
+        <v>169932.9881186197</v>
       </c>
       <c r="S16">
-        <v>0.08674526532661818</v>
+        <v>0.07117645998869754</v>
       </c>
       <c r="T16">
-        <v>0.09495425967758353</v>
+        <v>0.07744170367393916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H17">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I17">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J17">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N17">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O17">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P17">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q17">
-        <v>9214.367651252571</v>
+        <v>7726.559753790919</v>
       </c>
       <c r="R17">
-        <v>55286.20590751542</v>
+        <v>46359.35852274551</v>
       </c>
       <c r="S17">
-        <v>0.03933086248350705</v>
+        <v>0.02912643739918732</v>
       </c>
       <c r="T17">
-        <v>0.02870191562648332</v>
+        <v>0.02112684385168525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H18">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I18">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J18">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N18">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O18">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P18">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q18">
-        <v>12331.34847261121</v>
+        <v>16295.36340841311</v>
       </c>
       <c r="R18">
-        <v>110982.1362535008</v>
+        <v>146658.270675718</v>
       </c>
       <c r="S18">
-        <v>0.05263546988452825</v>
+        <v>0.06142784076435626</v>
       </c>
       <c r="T18">
-        <v>0.05761654030163506</v>
+        <v>0.06683497103619086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>269.1818846666667</v>
+        <v>240.8053896666667</v>
       </c>
       <c r="H19">
-        <v>807.545654</v>
+        <v>722.4161690000001</v>
       </c>
       <c r="I19">
-        <v>0.4384756105484908</v>
+        <v>0.316207174113469</v>
       </c>
       <c r="J19">
-        <v>0.4410207146045942</v>
+        <v>0.3177637710968984</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N19">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O19">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P19">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q19">
-        <v>27500.44996911497</v>
+        <v>13773.90783227535</v>
       </c>
       <c r="R19">
-        <v>247504.0497220347</v>
+        <v>123965.1704904782</v>
       </c>
       <c r="S19">
-        <v>0.1173836834937659</v>
+        <v>0.05192283202393003</v>
       </c>
       <c r="T19">
-        <v>0.128492093746102</v>
+        <v>0.05649329247545356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H20">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I20">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J20">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N20">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O20">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P20">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q20">
-        <v>389.3953327221578</v>
+        <v>396.0948036842099</v>
       </c>
       <c r="R20">
-        <v>1557.581330888631</v>
+        <v>1584.37921473684</v>
       </c>
       <c r="S20">
-        <v>0.00166210583977868</v>
+        <v>0.001493139362313372</v>
       </c>
       <c r="T20">
-        <v>0.0008086206533205775</v>
+        <v>0.0007220318256814948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H21">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I21">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J21">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
         <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P21">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q21">
-        <v>433.002897971298</v>
+        <v>541.43528801976</v>
       </c>
       <c r="R21">
-        <v>2598.017387827788</v>
+        <v>3248.61172811856</v>
       </c>
       <c r="S21">
-        <v>0.001848241580935193</v>
+        <v>0.002041022333967087</v>
       </c>
       <c r="T21">
-        <v>0.001348764572239044</v>
+        <v>0.001480454322529948</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H22">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I22">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J22">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N22">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O22">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P22">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q22">
-        <v>501.0464089125166</v>
+        <v>650.6848174849799</v>
       </c>
       <c r="R22">
-        <v>3006.278453475099</v>
+        <v>3904.10890490988</v>
       </c>
       <c r="S22">
-        <v>0.002138680390521902</v>
+        <v>0.002452854984235296</v>
       </c>
       <c r="T22">
-        <v>0.001560713908740618</v>
+        <v>0.001779176887737492</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H23">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I23">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J23">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N23">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O23">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P23">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q23">
-        <v>227.1776716872428</v>
+        <v>266.26964316696</v>
       </c>
       <c r="R23">
-        <v>908.7106867489711</v>
+        <v>1065.07857266784</v>
       </c>
       <c r="S23">
-        <v>0.0009696914755989414</v>
+        <v>0.001003743754029896</v>
       </c>
       <c r="T23">
-        <v>0.00047175849801636</v>
+        <v>0.0004853766189083292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H24">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I24">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J24">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N24">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O24">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P24">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q24">
-        <v>304.0259669247121</v>
+        <v>561.56436218658</v>
       </c>
       <c r="R24">
-        <v>1824.155801548272</v>
+        <v>3369.38617311948</v>
       </c>
       <c r="S24">
-        <v>0.001297712870715077</v>
+        <v>0.002116901928159809</v>
       </c>
       <c r="T24">
-        <v>0.0009470131843227346</v>
+        <v>0.001535493540545799</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.636604500000001</v>
+        <v>8.298539999999999</v>
       </c>
       <c r="H25">
-        <v>13.273209</v>
+        <v>16.59708</v>
       </c>
       <c r="I25">
-        <v>0.01081049422664478</v>
+        <v>0.01089700644283719</v>
       </c>
       <c r="J25">
-        <v>0.00724882870619242</v>
+        <v>0.007300432847865715</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N25">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O25">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P25">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q25">
-        <v>678.0159454008525</v>
+        <v>474.67095840618</v>
       </c>
       <c r="R25">
-        <v>4068.095672405116</v>
+        <v>2848.02575043708</v>
       </c>
       <c r="S25">
-        <v>0.002894062069094989</v>
+        <v>0.001789344080131729</v>
       </c>
       <c r="T25">
-        <v>0.002111957889553085</v>
+        <v>0.001297899652462652</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H26">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I26">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J26">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N26">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O26">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P26">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q26">
-        <v>145.5724375742783</v>
+        <v>12400.04146677272</v>
       </c>
       <c r="R26">
-        <v>873.43462544567</v>
+        <v>74400.24880063631</v>
       </c>
       <c r="S26">
-        <v>0.0006213654306320793</v>
+        <v>0.04674383464802437</v>
       </c>
       <c r="T26">
-        <v>0.0004534448785783444</v>
+        <v>0.03390561235152501</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H27">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I27">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J27">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
         <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P27">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q27">
-        <v>161.8747890319067</v>
+        <v>16950.03307433366</v>
       </c>
       <c r="R27">
-        <v>1456.87310128716</v>
+        <v>152550.2976690029</v>
       </c>
       <c r="S27">
-        <v>0.0006909508398110389</v>
+        <v>0.06389571723838806</v>
       </c>
       <c r="T27">
-        <v>0.0007563378268638426</v>
+        <v>0.0695200801106827</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H28">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I28">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J28">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N28">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O28">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P28">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q28">
-        <v>187.3123300511589</v>
+        <v>20370.1705843278</v>
       </c>
       <c r="R28">
-        <v>1685.81097046043</v>
+        <v>183331.5352589502</v>
       </c>
       <c r="S28">
-        <v>0.0007995291455193833</v>
+        <v>0.07678844365942969</v>
       </c>
       <c r="T28">
-        <v>0.0008751912604980873</v>
+        <v>0.08354767714495523</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H29">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I29">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J29">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N29">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O29">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P29">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q29">
-        <v>84.92861791324501</v>
+        <v>8335.768573337386</v>
       </c>
       <c r="R29">
-        <v>509.57170747947</v>
+        <v>50014.61144002432</v>
       </c>
       <c r="S29">
-        <v>0.0003625116685686055</v>
+        <v>0.03142294232647364</v>
       </c>
       <c r="T29">
-        <v>0.0002645449061595059</v>
+        <v>0.0227926123196393</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H30">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I30">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J30">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N30">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O30">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P30">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q30">
-        <v>113.6577595363378</v>
+        <v>17580.18866343678</v>
       </c>
       <c r="R30">
-        <v>1022.91983582704</v>
+        <v>158221.6979709311</v>
       </c>
       <c r="S30">
-        <v>0.0004851399336013623</v>
+        <v>0.06627118418650234</v>
       </c>
       <c r="T30">
-        <v>0.0005310503468021994</v>
+        <v>0.07210464539409682</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.481043333333333</v>
+        <v>259.7919466666667</v>
       </c>
       <c r="H31">
-        <v>7.44313</v>
+        <v>779.37584</v>
       </c>
       <c r="I31">
-        <v>0.004041419769862061</v>
+        <v>0.3411388649839469</v>
       </c>
       <c r="J31">
-        <v>0.004064877936294229</v>
+        <v>0.3428181935116861</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N31">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O31">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P31">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q31">
-        <v>253.4710244117278</v>
+        <v>14859.92624129954</v>
       </c>
       <c r="R31">
-        <v>2281.23921970555</v>
+        <v>133739.3361716958</v>
       </c>
       <c r="S31">
-        <v>0.001081922751729592</v>
+        <v>0.05601674292512875</v>
       </c>
       <c r="T31">
-        <v>0.001184308717392248</v>
+        <v>0.06094756619078703</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H32">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I32">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J32">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N32">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O32">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P32">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q32">
-        <v>18365.04783113227</v>
+        <v>11032.6476370698</v>
       </c>
       <c r="R32">
-        <v>110190.2869867936</v>
+        <v>66195.88582241879</v>
       </c>
       <c r="S32">
-        <v>0.07838987959755477</v>
+        <v>0.04158923647626539</v>
       </c>
       <c r="T32">
-        <v>0.05720545058280098</v>
+        <v>0.03016672766746912</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H33">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I33">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J33">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N33">
         <v>195.733932</v>
       </c>
       <c r="O33">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P33">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q33">
-        <v>20421.71095547205</v>
+        <v>15080.89653142687</v>
       </c>
       <c r="R33">
-        <v>183795.3985992484</v>
+        <v>135728.0687828419</v>
       </c>
       <c r="S33">
-        <v>0.08716859752805885</v>
+        <v>0.05684972390600013</v>
       </c>
       <c r="T33">
-        <v>0.09541765321997608</v>
+        <v>0.06185386957110283</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H34">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I34">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J34">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N34">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O34">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P34">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q34">
-        <v>23630.84632003299</v>
+        <v>18123.88409878307</v>
       </c>
       <c r="R34">
-        <v>212677.6168802969</v>
+        <v>163114.9568890477</v>
       </c>
       <c r="S34">
-        <v>0.1008665599375952</v>
+        <v>0.0683207264881804</v>
       </c>
       <c r="T34">
-        <v>0.1104118995894062</v>
+        <v>0.07433459680807496</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H35">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I35">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J35">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N35">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O35">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P35">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q35">
-        <v>10714.37805259567</v>
+        <v>7416.555638158417</v>
       </c>
       <c r="R35">
-        <v>64286.26831557402</v>
+        <v>44499.3338289505</v>
       </c>
       <c r="S35">
-        <v>0.04573354848996738</v>
+        <v>0.0279578299263686</v>
       </c>
       <c r="T35">
-        <v>0.033374311346698</v>
+        <v>0.02027919512404366</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H36">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I36">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J36">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N36">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O36">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P36">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q36">
-        <v>14338.7733629116</v>
+        <v>15641.56276707894</v>
       </c>
       <c r="R36">
-        <v>129048.9602662043</v>
+        <v>140774.0649037104</v>
       </c>
       <c r="S36">
-        <v>0.06120401797102022</v>
+        <v>0.05896324021014127</v>
       </c>
       <c r="T36">
-        <v>0.06699595872869425</v>
+        <v>0.06415342624140265</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>313.0021056666667</v>
+        <v>231.1438243333334</v>
       </c>
       <c r="H37">
-        <v>939.0063170000001</v>
+        <v>693.4314730000001</v>
       </c>
       <c r="I37">
-        <v>0.5098552213315046</v>
+        <v>0.3035203473119804</v>
       </c>
       <c r="J37">
-        <v>0.512814643841261</v>
+        <v>0.3050144906955385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N37">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O37">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P37">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q37">
-        <v>31977.25863972195</v>
+        <v>13221.27273303172</v>
       </c>
       <c r="R37">
-        <v>287795.3277574976</v>
+        <v>118991.4545972855</v>
       </c>
       <c r="S37">
-        <v>0.1364926178073082</v>
+        <v>0.04983959030502455</v>
       </c>
       <c r="T37">
-        <v>0.1494093703736854</v>
+        <v>0.05422667528344535</v>
       </c>
     </row>
   </sheetData>
